--- a/매니저봇 기능 정리 및 기획안 (version 2).xlsb.xlsx
+++ b/매니저봇 기능 정리 및 기획안 (version 2).xlsb.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansi\Desktop\새 폴더\CEF_Test_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansi\Desktop\코딩_프로젝트\Bot_Project\CEF_Test_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{576181F7-77A5-4DF3-A193-7A460A9B05D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41D5CD-95AE-46DC-B8B7-86147776934C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15945" yWindow="945" windowWidth="11700" windowHeight="14040" activeTab="1" xr2:uid="{34493D71-4028-40FB-A2CC-CC57B5164F45}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="17430" windowHeight="15570" xr2:uid="{34493D71-4028-40FB-A2CC-CC57B5164F45}"/>
   </bookViews>
   <sheets>
     <sheet name="간단요약" sheetId="1" r:id="rId1"/>
-    <sheet name="멤버" sheetId="3" r:id="rId2"/>
-    <sheet name="징계" sheetId="10" r:id="rId3"/>
-    <sheet name="리그" sheetId="11" r:id="rId4"/>
-    <sheet name="커리어" sheetId="12" r:id="rId5"/>
-    <sheet name="이적" sheetId="13" r:id="rId6"/>
-    <sheet name="출석" sheetId="16" r:id="rId7"/>
-    <sheet name="게임" sheetId="14" r:id="rId8"/>
+    <sheet name="개인자산 활용방안" sheetId="17" r:id="rId2"/>
+    <sheet name="멤버" sheetId="3" r:id="rId3"/>
+    <sheet name="징계" sheetId="10" r:id="rId4"/>
+    <sheet name="리그" sheetId="11" r:id="rId5"/>
+    <sheet name="커리어" sheetId="12" r:id="rId6"/>
+    <sheet name="이적" sheetId="13" r:id="rId7"/>
+    <sheet name="출석" sheetId="16" r:id="rId8"/>
+    <sheet name="게임" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="242">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,11 +1037,126 @@
     <t>경고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>이모지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금:이모지 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 이적료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 / 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 개인자산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 / 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탭선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판, 병, 탐, 조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절한 비율은 무엇인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금과 개인자산의 균형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기프티콘, 서버 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잦은 닉변을 막기 위함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고민해야할 점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 고려사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내전 판당 획득 금액, 내전 리그 순위에 따른 획득 금액, 리그 우승, 리그 이적 등으로 추가 획득 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진, 마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비율(모든 것을 결정하는 베이스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉변 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후원금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number_Of_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1064,7 +1180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,6 +1190,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,6 +1263,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1289,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,34 +1618,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02E0162-0476-4AD5-BC70-EB649A34E742}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1511,7 +1672,7 @@
       <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="18" t="s">
         <v>60</v>
       </c>
       <c r="J2" t="s">
@@ -1525,7 +1686,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="18" t="s">
         <v>186</v>
       </c>
       <c r="B3" t="s">
@@ -1537,7 +1698,7 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1549,7 +1710,7 @@
       <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="18"/>
       <c r="J3" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1722,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1732,7 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="11" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1742,7 @@
       <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="18"/>
       <c r="J4" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1754,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1603,18 +1764,18 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="11">
         <f>COUNTA(H3:H4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1624,12 +1785,12 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1639,7 +1800,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="18"/>
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -1651,7 +1812,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1661,20 +1822,20 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="18"/>
       <c r="F9" t="s">
         <v>67</v>
       </c>
@@ -1686,17 +1847,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="18"/>
       <c r="F10" t="s">
         <v>30</v>
       </c>
@@ -1708,17 +1869,17 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="18"/>
       <c r="F11" t="s">
         <v>31</v>
       </c>
@@ -1730,8 +1891,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="18"/>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" t="s">
         <v>32</v>
       </c>
@@ -1743,8 +1913,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" t="s">
         <v>33</v>
       </c>
@@ -1756,8 +1935,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" t="s">
         <v>34</v>
       </c>
@@ -1769,16 +1948,16 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="17"/>
       <c r="D15">
         <f>COUNTA(D3:D13)</f>
-        <v>9</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" t="s">
         <v>147</v>
       </c>
@@ -1790,7 +1969,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
@@ -1802,11 +1981,11 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="17"/>
       <c r="H16">
         <f>COUNTA(H6:H15)</f>
         <v>8</v>
@@ -1815,7 +1994,7 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1825,7 +2004,7 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F17" t="s">
@@ -1843,7 +2022,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +2032,7 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="18"/>
       <c r="F18" t="s">
         <v>213</v>
       </c>
@@ -1867,7 +2046,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +2056,7 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="11" t="s">
         <v>51</v>
       </c>
@@ -1891,7 +2070,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +2080,7 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="18"/>
       <c r="F20" t="s">
         <v>138</v>
       </c>
@@ -1915,7 +2094,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +2104,7 @@
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="18"/>
       <c r="F21" t="s">
         <v>154</v>
       </c>
@@ -1939,7 +2118,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1949,11 +2128,11 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="17"/>
       <c r="H22">
         <f>COUNTA(H17:H21)</f>
         <v>5</v>
@@ -1966,7 +2145,7 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="17"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1976,7 +2155,7 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="18" t="s">
         <v>102</v>
       </c>
       <c r="F23" t="s">
@@ -1990,7 +2169,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="17"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +2179,7 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="18"/>
       <c r="F24" t="s">
         <v>103</v>
       </c>
@@ -2012,16 +2191,16 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="17"/>
       <c r="D25">
         <f>COUNTA(D16:D24)</f>
         <v>9</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="18"/>
       <c r="F25" t="s">
         <v>104</v>
       </c>
@@ -2033,7 +2212,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="13"/>
+      <c r="E26" s="18"/>
       <c r="F26" t="s">
         <v>10</v>
       </c>
@@ -2045,11 +2224,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="13"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="17"/>
       <c r="H27">
         <f>COUNTA(H23:H26)</f>
         <v>4</v>
@@ -2079,10 +2258,368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7302ED-F496-4031-874D-2EE527761678}">
+  <dimension ref="B3:N15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="10.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="10.875" style="13" customWidth="1"/>
+    <col min="6" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="12.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="J3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="13">
+        <f>B5*G5</f>
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="13">
+        <f>D5*G5</f>
+        <v>100000</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="13">
+        <f>B6*G6</f>
+        <v>2000000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:E14" si="0">D6*G6</f>
+        <v>200000</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>200</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" ref="C7:C14" si="1">B7*G7</f>
+        <v>3000000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>300</v>
+      </c>
+      <c r="J7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>400</v>
+      </c>
+      <c r="J8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>500</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>600</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="1"/>
+        <v>7000000</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>700</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="1"/>
+        <v>8000000</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>800</v>
+      </c>
+      <c r="J12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>900</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE51B060-3337-4C77-AC43-C0D3848DC4CF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2223,7 +2760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70ED04-6036-4B26-A078-AAD52322F7E4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2314,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A9F149-EDE6-4FDC-90D5-3A91E51042E2}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2449,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87499871-A837-4CED-87EA-BDF6B4F362B6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2559,7 +3096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68E71C4-2D80-415D-BB8B-8808AD7DE2D0}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2722,7 +3259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31081841-D06B-4A48-9456-17E78022D486}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2866,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037539D4-5F4E-4303-B736-4D21A6E403B7}">
   <dimension ref="A1:E7"/>
   <sheetViews>
